--- a/BY_Trans.xlsx
+++ b/BY_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26111"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Migrating Task\Training material_migrated\DemoS_004\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\ETZE_2014\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A775FBF0-D375-48E4-A3BB-9E3B6A91CAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F40593EF-C10B-4E28-96F8-B812A089D715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32310" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trans Tables" sheetId="17" r:id="rId1"/>
@@ -18,9 +18,6 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -151,7 +148,7 @@
     <t>AllRegions</t>
   </si>
   <si>
-    <t>REG1</t>
+    <t>PL</t>
   </si>
   <si>
     <t>Pset_Set</t>
@@ -340,9 +337,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -380,9 +377,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -415,9 +412,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,9 +464,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -860,6 +891,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -871,17 +903,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -933,8 +956,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Typ zawartości"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Tytuł"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1023,14 +1046,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADF89E83-C050-4236-A07E-5DEE101DE675}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F820387F-4A48-42DF-B001-E1D30ECFC076}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B3C5AFD-84C8-4275-866C-BBCF1C920D18}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E7A0350-CEEB-46C7-9894-CFA146D1C694}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8122128-D7C5-45D8-9952-A9250603C292}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C830273-0E35-4F33-BC3C-DE205414258E}"/>
 </file>